--- a/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.0_plantilla.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 HISTORIAS DE USUARIO/GN3_Matriz de Marco de Trabajo HU_V1.0_plantilla.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="223">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -66,22 +66,55 @@
     <t>RF1.1</t>
   </si>
   <si>
-    <t>Permitir registrar nuevos clientes en el sistema.</t>
-  </si>
-  <si>
-    <t>El cliente necesita registrarse en el sistema de manera segura.</t>
-  </si>
-  <si>
-    <t>Registrar al cliente y validar sus credenciales.</t>
+    <t>El cliente debe poder crear su cuenta en el sistema</t>
+  </si>
+  <si>
+    <t>Registrar cliente con nombre, correo y contraseña</t>
+  </si>
+  <si>
+    <t>Para que el cliente pueda acceder al sistema y gestionar sus comprobantes de pago</t>
   </si>
   <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>Recibir credenciales, validar correo (formato y unicidad), validar contraseña (segura), registrar cuenta, enviar confirmación.</t>
-  </si>
-  <si>
-    <t>Equipo de desarrollo</t>
+    <t>Ingresar nombre completo, correo electrónico, contraseña y confirmar contraseña</t>
+  </si>
+  <si>
+    <t>Equipo Desarrollo</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>En progreso</t>
+  </si>
+  <si>
+    <t>Validar que el correo no esté duplicado, que la contraseña cumpla requisitos de seguridad (8 caracteres, mayúscula, número, símbolo). Verificar confirmación exitosa y habilitación de inicio de sesión.</t>
+  </si>
+  <si>
+    <t>Implementar validación en tiempo real</t>
+  </si>
+  <si>
+    <t>Registrar Cliente</t>
+  </si>
+  <si>
+    <t>RF1.2</t>
+  </si>
+  <si>
+    <t>El gerente necesita registrar nuevos asistentes administrativos</t>
+  </si>
+  <si>
+    <t>Crear cuentas de asistente desde el panel de gerente</t>
+  </si>
+  <si>
+    <t>Para gestionar el personal que ayudará en operaciones administrativas</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Ingresar nombre completo, correo electrónico y contraseña inicial del asistente</t>
   </si>
   <si>
     <t>Alta</t>
@@ -90,37 +123,10 @@
     <t>No iniciado</t>
   </si>
   <si>
-    <t>Verificar que el cliente pueda iniciar sesión con sus credenciales y que las validaciones de datos se apliquen correctamente.</t>
-  </si>
-  <si>
-    <t>Se debe garantizar seguridad de acceso (RNF-01) y facilidad de uso (RNF-03).</t>
-  </si>
-  <si>
-    <t>Registrar Cliente</t>
-  </si>
-  <si>
-    <t>RF1.2</t>
-  </si>
-  <si>
-    <t>Permitir registrar nuevos asistentes por parte del gerente.</t>
-  </si>
-  <si>
-    <t>El gerente necesita registrar nuevos asistentes para gestión de pagos.</t>
-  </si>
-  <si>
-    <t>Permitir al gerente el registro manual de un nuevo asistente.</t>
-  </si>
-  <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>Ingreso de datos (nombre, correo, contraseña temporal), validar datos (formato y unicidad de correo), registrar asistente, enviar correo de confirmación.</t>
-  </si>
-  <si>
-    <t>El asistente debe poder iniciar sesión tras la activación de su cuenta Verificar que solo el Gerente pueda acceder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solo el gerente puede acceder. </t>
+    <t>Verificar que solo el gerente pueda acceder. Validar formato de datos, correo único. Confirmar envío de correo con credenciales temporales. Verificar que el asistente pueda iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Forzar cambio de contraseña en primer inicio</t>
   </si>
   <si>
     <t>Registrar Nuevo Asistente</t>
@@ -129,25 +135,25 @@
     <t>RF1.3</t>
   </si>
   <si>
-    <t>Permitir inicio de sesión seguro.</t>
-  </si>
-  <si>
-    <t>El usuario necesita acceder al sistema según su rol.</t>
-  </si>
-  <si>
-    <t>Permitir inicio de sesión con validación de credenciales.</t>
+    <t>Los usuarios necesitan acceder al sistema según su rol</t>
+  </si>
+  <si>
+    <t>Autenticar usuarios y redirigirlos a su entorno correspondiente</t>
+  </si>
+  <si>
+    <t>Para garantizar acceso seguro y diferenciado por tipo de usuario</t>
   </si>
   <si>
     <t>Cliente, Asistente, Gerente</t>
   </si>
   <si>
-    <t>Ingreso de correo y contraseña, validar existencia de usuario y exactitud de contraseña, identificar rol, redirigir a interfaz respectiva.</t>
-  </si>
-  <si>
-    <t>Verificar que solo usuarios con credenciales válidas accedan</t>
-  </si>
-  <si>
-    <t>Se extiende con "Recuperar Contraseña" si el usuario lo solicita.</t>
+    <t>Ingresar correo electrónico y contraseña</t>
+  </si>
+  <si>
+    <t>Validar credenciales correctas e incorrectas. Verificar redirección según rol (ClienteDashboard, AssistantDashboard, ManagerDashboard). Probar con usuario no registrado y formato de correo inválido.</t>
+  </si>
+  <si>
+    <t>Implementar bloqueo después de 5 intentos fallidos</t>
   </si>
   <si>
     <t>Iniciar Sesión</t>
@@ -156,22 +162,22 @@
     <t>RF1.4</t>
   </si>
   <si>
-    <t>Permitir recuperar contraseña olvidada.</t>
-  </si>
-  <si>
-    <t>El usuario olvidó su contraseña y necesita restablecerla.</t>
-  </si>
-  <si>
-    <t>Ofrecer un mecanismo seguro para recuperar la contraseña.</t>
-  </si>
-  <si>
-    <t>Solicitar correo, verificar existencia, enviar código/enlace de recuperación (con expiración), permitir definir nueva contraseña tras validación.</t>
-  </si>
-  <si>
-    <t>Verificar que solo se pueda restablecer la contraseña tras la validación por correo y que el usuario pueda iniciar sesión con la nueva.</t>
-  </si>
-  <si>
-    <t>El código/enlace dura activo un tiempo limitado</t>
+    <t>Los usuarios olvidan sus contraseñas</t>
+  </si>
+  <si>
+    <t>Recuperar acceso mediante verificación por correo</t>
+  </si>
+  <si>
+    <t>Para permitir que usuarios recuperen el acceso de forma segura</t>
+  </si>
+  <si>
+    <t>Solicitar recuperación ingresando correo, recibir código de 6 dígitos, establecer nueva contraseña</t>
+  </si>
+  <si>
+    <t>Verificar envío de código al correo. Validar expiración del código (10 minutos). Probar con correo no registrado. Validar requisitos de nueva contraseña. Confirmar actualización exitosa.</t>
+  </si>
+  <si>
+    <t>Implementar límite de intentos</t>
   </si>
   <si>
     <t>Recuperar Contraseña</t>
@@ -180,22 +186,25 @@
     <t>RF1.5</t>
   </si>
   <si>
-    <t>Salir del sistema de forma segura</t>
-  </si>
-  <si>
-    <t>El usuario necesita salir del sistema de forma segura.</t>
-  </si>
-  <si>
-    <t>Permitir a cualquier usuario autenticado cerrar su sesión.</t>
-  </si>
-  <si>
-    <t>Clic en "Cerrar sesión", invalidar sesión activa y eliminar tokens de acceso, redirigir a la pantalla de inicio de sesión.</t>
-  </si>
-  <si>
-    <t>El usuario debe ser redirigido a la pantalla de inicio de sesión y no poder acceder a funcionalidades restringidas.</t>
-  </si>
-  <si>
-    <t>La opción debe estar disponible en todas las vistas.</t>
+    <t>Los usuarios necesitan cerrar su sesión de forma segura</t>
+  </si>
+  <si>
+    <t>Terminar sesión y limpiar tokens de autenticación</t>
+  </si>
+  <si>
+    <t>Para prevenir accesos no autorizados después del uso</t>
+  </si>
+  <si>
+    <t>Hacer clic en botón 'Cerrar sesión'</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Verificar invalidación de tokens. Confirmar redirección a pantalla de inicio de sesión. Probar intento de acceso con sesión cerrada. Validar comportamiento con sesión expirada.</t>
+  </si>
+  <si>
+    <t>Disponible en todas las vistas internas</t>
   </si>
   <si>
     <t>Cerrar Sesión</t>
@@ -204,367 +213,451 @@
     <t>RF1.6</t>
   </si>
   <si>
+    <t>Los usuarios necesitan una página inicial según su rol</t>
+  </si>
+  <si>
+    <t>Mostrar dashboard personalizado con información relevante</t>
+  </si>
+  <si>
+    <t>Para facilitar acceso rápido a funcionalidades principales</t>
+  </si>
+  <si>
+    <t>Visualizar widgets y accesos rápidos después de iniciar sesión</t>
+  </si>
+  <si>
+    <t>En diseño</t>
+  </si>
+  <si>
+    <t>Verificar que cada rol vea su dashboard correspondiente. Validar carga de datos resumidos (créditos, pagos, reportes). Probar responsive design. Confirmar funcionamiento de accesos rápidos.</t>
+  </si>
+  <si>
+    <t>Debe ser responsive y con datos en tiempo real</t>
+  </si>
+  <si>
     <t>Acceder Dashboard</t>
   </si>
   <si>
-    <t>El usuario necesita una vista inicial con información relevante a su rol.</t>
-  </si>
-  <si>
-    <t>Presentar un Dashboard personalizado tras el inicio de sesión.</t>
-  </si>
-  <si>
-    <t>Identificar el rol del usuario, redirigir a su Dashboard particular (Cliente, Assistant o Manager), cargar y mostrar datos resumidos según el rol.</t>
-  </si>
-  <si>
-    <t>El usuario debe ver su dashboard específico al iniciar sesión con la información clave de su rol.</t>
-  </si>
-  <si>
-    <t>El Dashboard debe ser responsive y ofrecer enlaces directos a casos de uso principales.</t>
-  </si>
-  <si>
     <t>RF-2</t>
   </si>
   <si>
+    <t>Los usuarios necesitan registrar comprobantes de pago</t>
+  </si>
+  <si>
+    <t>Ingresar datos del comprobante y adjuntar archivo</t>
+  </si>
+  <si>
+    <t>Para mantener registro digital de pagos realizados</t>
+  </si>
+  <si>
+    <t>Ingresar número de referencia, fecha, monto, entidad emisora y adjuntar archivo</t>
+  </si>
+  <si>
+    <t>Validar formato de datos. Verificar control de duplicados. Probar validación con pasarela de pago. Confirmar asociación a cuotas. Verificar actualización de saldos. Validar generación de acuse con número único.</t>
+  </si>
+  <si>
+    <t>Integrar con pasarelas de pago externas</t>
+  </si>
+  <si>
     <t>Registrar Comprobante de Pago</t>
   </si>
   <si>
-    <t>Se necesita registrar y validar comprobantes de pago de créditos.</t>
-  </si>
-  <si>
-    <t>Permitir el registro de comprobantes y validación de duplicados/validez.</t>
-  </si>
-  <si>
-    <t>Ingresar datos (referencia, fecha, monto, etc.) y adjunto opcional. Validar integridad y unicidad de la información. Asociar pago a cuotas, actualizar saldos,</t>
-  </si>
-  <si>
-    <t>Verificar que el comprobante se registre correctamente, los saldos se actualicen y se genere el acuse con número único.</t>
-  </si>
-  <si>
-    <t>La validación puede integrarse con pasarelas/bancos para confirmar la transacción.</t>
-  </si>
-  <si>
     <t>RF-3</t>
   </si>
   <si>
+    <t>Los pagos a crédito deben procesarse y actualizarse en tiempo real</t>
+  </si>
+  <si>
+    <t>Registrar pago y recalcular estado del crédito</t>
+  </si>
+  <si>
+    <t>Para mantener actualizado el estado financiero del cliente</t>
+  </si>
+  <si>
+    <t>Cliente, Gerente</t>
+  </si>
+  <si>
+    <t>Seleccionar crédito, ingresar monto, método de pago y confirmar transacción</t>
+  </si>
+  <si>
+    <t>Validar crédito activo. Verificar cálculo correcto de aplicación a cuotas. Confirmar recalculo de saldos e intereses. Validar generación de comprobante digital. Probar diferentes métodos de pago.</t>
+  </si>
+  <si>
+    <t>Implementar lógica de aplicación de pagos según reglas de negocio</t>
+  </si>
+  <si>
+    <t>Procesar Pagos a Crédito</t>
+  </si>
+  <si>
     <t>RF-4</t>
   </si>
   <si>
+    <t>El sistema necesita importar datos de facturación externa</t>
+  </si>
+  <si>
+    <t>Cargar archivos CSV/XLSX con datos de facturación</t>
+  </si>
+  <si>
+    <t>Para sincronizar información de sistemas externos</t>
+  </si>
+  <si>
+    <t>Gerente, Asistente</t>
+  </si>
+  <si>
+    <t>Seleccionar archivo, validar formato, importar y verificar resultados</t>
+  </si>
+  <si>
+    <t>Validar formato de archivo. Verificar control de duplicados. Probar validación de integridad de datos. Confirmar reporte de inconsistencias. Validar actualización correcta en base de datos. Verificar disponibilidad de datos en módulos.</t>
+  </si>
+  <si>
+    <t>Soportar CSV, XLSX y API de sistemas externos</t>
+  </si>
+  <si>
+    <t>Importar Datos de Facturación</t>
+  </si>
+  <si>
     <t>RF-5.1</t>
   </si>
   <si>
-    <t>Otorgar crédito a clientes registrados.</t>
-  </si>
-  <si>
-    <t>Asignar crédito al cliente seleccionado.</t>
-  </si>
-  <si>
-    <t>Gestionar créditos activos.</t>
-  </si>
-  <si>
-    <t>Datos del cliente</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Si el cliente tiene pagos vencidos, bloquear acción.</t>
-  </si>
-  <si>
-    <t>Solo gerente autorizado.</t>
-  </si>
-  <si>
-    <t>Otorgar crédito</t>
+    <t>El gerente necesita otorgar créditos a clientes</t>
+  </si>
+  <si>
+    <t>Asignar crédito y cambiar estado del cliente</t>
+  </si>
+  <si>
+    <t>Para habilitar compras a crédito según política de la empresa</t>
+  </si>
+  <si>
+    <t>Seleccionar cliente desde lista y asignar rol 'Cliente con acceso a crédito'</t>
+  </si>
+  <si>
+    <t>Verificar que solo gerente acceda. Validar selección de cliente registrado. Confirmar cambio de estado a 'con crédito activo'. Probar restricción con clientes con pagos vencidos. Validar notificación al cliente.</t>
+  </si>
+  <si>
+    <t>Implementar validación de historial crediticio</t>
+  </si>
+  <si>
+    <t>Otorgar Crédito</t>
   </si>
   <si>
     <t>RF-5.2</t>
   </si>
   <si>
-    <t>Permitir pagos en línea.</t>
-  </si>
-  <si>
-    <t>Procesar pago mediante tarjeta o transferencia.</t>
-  </si>
-  <si>
-    <t>Facilitar pago digital al cliente.</t>
-  </si>
-  <si>
-    <t>Datos de pago</t>
-  </si>
-  <si>
-    <t>Si los datos son incorrectos, mostrar error.</t>
-  </si>
-  <si>
-    <t>Pasarela debe ser segura.</t>
-  </si>
-  <si>
-    <t>Pago en línea</t>
+    <t>Los clientes necesitan realizar pagos en línea</t>
+  </si>
+  <si>
+    <t>Procesar pago de cuota mediante pasarela de pago</t>
+  </si>
+  <si>
+    <t>Para facilitar el cumplimiento de obligaciones desde cualquier lugar</t>
+  </si>
+  <si>
+    <t>Seleccionar cuota pendiente, elegir método de pago, completar formulario y confirmar</t>
+  </si>
+  <si>
+    <t>En análisis</t>
+  </si>
+  <si>
+    <t>Verificar listado de cuotas pendientes. Validar redirección a pasarela segura. Probar formulario de pago con datos válidos e inválidos. Confirmar procesamiento exitoso. Verificar actualización de estado de cuota. Validar generación de confirmación.</t>
+  </si>
+  <si>
+    <t>Implementar seguridad PCI DSS</t>
+  </si>
+  <si>
+    <t>Realizar Pago en Línea</t>
   </si>
   <si>
     <t>RF-5.3</t>
   </si>
   <si>
-    <t>Consultar condiciones de crédito activo.</t>
-  </si>
-  <si>
-    <t>Mostrar monto, interés y cuotas.</t>
-  </si>
-  <si>
-    <t>Permitir al cliente conocer sus condiciones.</t>
-  </si>
-  <si>
-    <t>Sesión activa, ID crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media </t>
-  </si>
-  <si>
-    <t>Si no hay crédito activo, mostrar aviso.</t>
-  </si>
-  <si>
-    <t>Actualizar en tiempo real.</t>
-  </si>
-  <si>
-    <t>Consultar condiciones</t>
+    <t>Los clientes necesitan conocer condiciones de su crédito</t>
+  </si>
+  <si>
+    <t>Visualizar términos, interés, cuotas y cronograma</t>
+  </si>
+  <si>
+    <t>Para mantener informado al cliente sobre su obligación financiera</t>
+  </si>
+  <si>
+    <t>Acceder a módulo 'Mis créditos' y seleccionar crédito activo</t>
+  </si>
+  <si>
+    <t>Verificar autenticación. Validar carga de créditos activos. Confirmar visualización completa de condiciones (monto, cuotas, interés, cronograma). Probar con cliente sin créditos. Validar formato y claridad de información.</t>
+  </si>
+  <si>
+    <t>Mostrar información en la misma página</t>
+  </si>
+  <si>
+    <t>Consultar Condiciones Crédito</t>
   </si>
   <si>
     <t>RF-5.4</t>
   </si>
   <si>
-    <t>Consultar estado del crédito.</t>
-  </si>
-  <si>
-    <t>Mostrar cuotas pagadas, pendientes y saldo.</t>
-  </si>
-  <si>
-    <t>Informar progreso de pago.</t>
-  </si>
-  <si>
-    <t>ID crédito</t>
-  </si>
-  <si>
-    <t>Si falla la consulta, mostrar mensaje.</t>
-  </si>
-  <si>
-    <t>Incluir historial de pagos.</t>
-  </si>
-  <si>
-    <t>Estado crédito</t>
+    <t>Los clientes necesitan revisar el estado de su crédito</t>
+  </si>
+  <si>
+    <t>Ver cuotas pagadas, pendientes y monto restante</t>
+  </si>
+  <si>
+    <t>Para hacer seguimiento del cumplimiento financiero</t>
+  </si>
+  <si>
+    <t>Acceder a módulo de créditos y consultar estado actualizado</t>
+  </si>
+  <si>
+    <t>Validar visualización de cuotas pagadas y pendientes. Verificar cálculo correcto de saldo restante. Confirmar historial de pagos con fechas y montos. Probar con diferentes estados de crédito. Validar actualización en tiempo real.</t>
+  </si>
+  <si>
+    <t>Incluir representación visual (gráficos)</t>
+  </si>
+  <si>
+    <t>Consultar Estado Crédito</t>
   </si>
   <si>
     <t>RF-5.5</t>
   </si>
   <si>
-    <t>Generar certificados de pago.</t>
-  </si>
-  <si>
-    <t>Crear documento PDF de pagos realizados.</t>
-  </si>
-  <si>
-    <t>Emitir constancia de pago.</t>
-  </si>
-  <si>
-    <t>Selección de pagos</t>
-  </si>
-  <si>
-    <t>Si no hay pagos, mostrar aviso.</t>
-  </si>
-  <si>
-    <t>Permitir descarga o envío.</t>
-  </si>
-  <si>
-    <t>Certificado pago</t>
+    <t>Los clientes necesitan certificados de sus pagos</t>
+  </si>
+  <si>
+    <t>Generar documento PDF con información de pagos</t>
+  </si>
+  <si>
+    <t>Para contar con respaldo formal de transacciones realizadas</t>
+  </si>
+  <si>
+    <t>Acceder a historial de pagos, seleccionar pagos y solicitar certificado</t>
+  </si>
+  <si>
+    <t>Verificar listado de pagos confirmados. Validar selección múltiple. Confirmar generación de PDF con datos correctos (cliente, monto, fecha, concepto). Probar descarga y envío por correo. Validar formato profesional del documento.</t>
+  </si>
+  <si>
+    <t>Incluir logo y marca de agua de seguridad</t>
+  </si>
+  <si>
+    <t>Generar Certificados de Pagos</t>
   </si>
   <si>
     <t>RF-6.1</t>
   </si>
   <si>
-    <t>Generar reportes por cliente.</t>
-  </si>
-  <si>
-    <t>Consultar pagos asociados por cédula.</t>
-  </si>
-  <si>
-    <t>Facilitar control de pagos individuales.</t>
-  </si>
-  <si>
-    <t>Cédula cliente</t>
-  </si>
-  <si>
-    <t>Si el cliente no existe, mostrar error.</t>
-  </si>
-  <si>
-    <t>Autocompletado en búsqueda.</t>
-  </si>
-  <si>
-    <t>Reporte cliente</t>
+    <t>El gerente necesita reportes de pagos por cliente específico</t>
+  </si>
+  <si>
+    <t>Filtrar y visualizar pagos de un cliente particular</t>
+  </si>
+  <si>
+    <t>Para analizar comportamiento de pago individual</t>
+  </si>
+  <si>
+    <t>Buscar cliente por cédula/nombre/RUC y generar reporte de sus pagos</t>
+  </si>
+  <si>
+    <t>Verificar búsqueda por cédula, nombre o RUC. Validar existencia del cliente. Confirmar listado de pagos con datos completos. Probar exportación a PDF, XLSX y CSV. Validar con cliente sin pagos registrados.</t>
+  </si>
+  <si>
+    <t>Implementar autocompletado en búsqueda</t>
+  </si>
+  <si>
+    <t>Generar Reporte Pago Cliente</t>
   </si>
   <si>
     <t>RF-6.2</t>
   </si>
   <si>
-    <t>Generar reportes por fecha.</t>
-  </si>
-  <si>
-    <t>Filtrar pagos entre fechas dadas.</t>
-  </si>
-  <si>
-    <t>Analizar pagos históricos.</t>
-  </si>
-  <si>
-    <t>Fecha inicio y fin</t>
-  </si>
-  <si>
-    <t>Si rango inválido, mostrar mensaje.</t>
-  </si>
-  <si>
-    <t>Rango máximo: 1 año.</t>
-  </si>
-  <si>
-    <t>Reporte fechas</t>
+    <t>El gerente necesita reportes de pagos por rango de fechas</t>
+  </si>
+  <si>
+    <t>Consultar todos los pagos en un período específico</t>
+  </si>
+  <si>
+    <t>Para analizar flujo de caja y tendencias temporales</t>
+  </si>
+  <si>
+    <t>Seleccionar fecha inicial y final en calendario y generar reporte</t>
+  </si>
+  <si>
+    <t>Validar selección de fechas con calendario. Verificar que fecha final &gt; fecha inicial. Confirmar listado ordenado cronológicamente. Probar filtros por cliente o método de pago. Validar exportación. Probar con rango sin pagos.</t>
+  </si>
+  <si>
+    <t>Limitar rango máximo a un año</t>
+  </si>
+  <si>
+    <t>Generar Reporte Pagos por Fechas</t>
   </si>
   <si>
     <t>RF-6.3</t>
   </si>
   <si>
-    <t>Visualizar clientes morosos.</t>
-  </si>
-  <si>
-    <t>Mostrar reporte de deudas vencidas.</t>
-  </si>
-  <si>
-    <t>Identificar riesgos de morosidad.</t>
+    <t>El asistente necesita identificar clientes con riesgo de morosidad</t>
+  </si>
+  <si>
+    <t>Listar clientes con pagos vencidos o en mora</t>
+  </si>
+  <si>
+    <t>Para realizar seguimiento y gestión de cobro</t>
   </si>
   <si>
     <t>Asistente</t>
   </si>
   <si>
-    <t>Historial de pagos</t>
-  </si>
-  <si>
-    <t>Si no hay morosos, mostrar aviso.</t>
-  </si>
-  <si>
-    <t>Filtrar por monto o días.</t>
-  </si>
-  <si>
-    <t>Riesgo morosidad</t>
+    <t>Acceder a módulo de reportes y seleccionar 'Clientes en riesgo de morosidad'</t>
+  </si>
+  <si>
+    <t>Verificar análisis automático de vencimientos. Validar cálculo de días de mora. Confirmar listado con datos completos (cliente, monto adeudado, facturas vencidas). Probar filtros por monto o fechas. Validar exportación. Probar cuando no hay morosidad.</t>
+  </si>
+  <si>
+    <t>Incluir indicadores visuales de severidad</t>
+  </si>
+  <si>
+    <t>Visualizar Clientes Riesgo Morosidad</t>
   </si>
   <si>
     <t>RF-6.4</t>
   </si>
   <si>
-    <t>Consultar información del cliente.</t>
-  </si>
-  <si>
-    <t>Mostrar datos básicos y estado.</t>
-  </si>
-  <si>
-    <t>Apoyar la gestión de reportes.</t>
-  </si>
-  <si>
-    <t>Nombre o RUC</t>
-  </si>
-  <si>
-    <t>Si no existe, mostrar “Cliente no encontrado”.</t>
-  </si>
-  <si>
-    <t>Buscar por nombre o cédula.</t>
-  </si>
-  <si>
-    <t>Info cliente</t>
+    <t>El asistente necesita consultar información básica del cliente</t>
+  </si>
+  <si>
+    <t>Buscar y visualizar datos personales y de contacto</t>
+  </si>
+  <si>
+    <t>Para atención y soporte al cliente</t>
+  </si>
+  <si>
+    <t>Buscar cliente por nombre, cédula o RUC</t>
+  </si>
+  <si>
+    <t>Verificar búsqueda con coincidencia exacta y parcial. Validar visualización de datos completos (nombre, cédula/RUC, contacto, correo, dirección, estado). Probar con cliente inexistente. Confirmar rapidez de búsqueda.</t>
+  </si>
+  <si>
+    <t>Implementar índice invertido para búsquedas rápidas</t>
+  </si>
+  <si>
+    <t>Consultar Información Cliente</t>
   </si>
   <si>
     <t>RF-6.5</t>
   </si>
   <si>
-    <t>Consultar historial de pagos del cliente.</t>
-  </si>
-  <si>
-    <t>Mostrar lista de facturas y pagos.</t>
-  </si>
-  <si>
-    <t>Controlar historial financiero.</t>
-  </si>
-  <si>
-    <t>ID cliente</t>
-  </si>
-  <si>
-    <t>Si el ID no existe, mostrar error.</t>
-  </si>
-  <si>
-    <t>Permitir orden por fecha.</t>
-  </si>
-  <si>
-    <t>Historial pagos</t>
+    <t>El asistente necesita consultar historial de pagos del cliente</t>
+  </si>
+  <si>
+    <t>Visualizar todos los pagos registrados de un cliente</t>
+  </si>
+  <si>
+    <t>Para brindar soporte y resolver consultas</t>
+  </si>
+  <si>
+    <t>Desde perfil del cliente, acceder a historial de pagos</t>
+  </si>
+  <si>
+    <t>Validar listado ordenado por fecha descendente. Verificar datos completos por pago (factura, fecha, monto, método, estado). Probar con cliente sin pagos. Confirmar integración con módulo de reportes.</t>
+  </si>
+  <si>
+    <t>Permitir filtros por fecha o estado</t>
+  </si>
+  <si>
+    <t>Consultar Información Pagos Cliente</t>
   </si>
   <si>
     <t>RF-7</t>
   </si>
   <si>
-    <t>Revisar estado de cuenta.</t>
-  </si>
-  <si>
-    <t>Mostrar créditos activos, cuotas e intereses.</t>
-  </si>
-  <si>
-    <t>Ofrecer visión consolidada de cuenta.</t>
-  </si>
-  <si>
-    <t>Identificador cliente</t>
-  </si>
-  <si>
-    <t>Si hay error de conexión, mostrar aviso.</t>
-  </si>
-  <si>
-    <t>Exportar a PDF o XLSX.</t>
-  </si>
-  <si>
-    <t>Estado de cuenta</t>
+    <t>Los usuarios necesitan revisar el estado de cuenta completo</t>
+  </si>
+  <si>
+    <t>Visualizar créditos, pagos, cuotas e intereses</t>
+  </si>
+  <si>
+    <t>Para tener visión integral de la situación financiera</t>
+  </si>
+  <si>
+    <t>Acceder a módulo de estado de cuenta y consultar información actualizada</t>
+  </si>
+  <si>
+    <t>Verificar visualización de créditos activos. Validar historial de pagos. Confirmar listado de cuotas pendientes. Verificar cálculo de intereses. Probar filtros por fecha o concepto. Validar exportación a PDF/XLSX.</t>
+  </si>
+  <si>
+    <t>Diseño debe ser claro y comprensible</t>
+  </si>
+  <si>
+    <t>Revisar Estado de Cuenta</t>
+  </si>
+  <si>
+    <t>RF-8.1</t>
+  </si>
+  <si>
+    <t>El sistema debe notificar pagos en riesgo de morosidad</t>
+  </si>
+  <si>
+    <t>Generar alerta cuando se aproxima fecha de vencimiento crítica</t>
+  </si>
+  <si>
+    <t>Para prevenir incumplimientos y mantener informado al cliente</t>
+  </si>
+  <si>
+    <t>Cliente (receptor), Asistente (gestor)</t>
+  </si>
+  <si>
+    <t>Verificación automática diaria de fechas y envío de notificación</t>
+  </si>
+  <si>
+    <t>Verificar ejecución automática diaria. Validar identificación correcta de pagos en riesgo. Confirmar generación y envío de notificación. Probar registro en log. Validar visualización en panel del cliente.</t>
+  </si>
+  <si>
+    <t>Definir criterios de 'riesgo de morosidad'</t>
+  </si>
+  <si>
+    <t>Notificar Riesgo Morosidad</t>
   </si>
   <si>
     <t>RF-8.2</t>
   </si>
   <si>
-    <t>Notificar próximo vencimiento.</t>
-  </si>
-  <si>
-    <t>Enviar alerta preventiva al cliente.</t>
-  </si>
-  <si>
-    <t>Recordar al cliente antes del vencimiento.</t>
-  </si>
-  <si>
-    <t>Fechas de vencimiento</t>
-  </si>
-  <si>
-    <t>Si no hay cuotas próximas, omitir envío.</t>
-  </si>
-  <si>
-    <t>Se ejecuta cada 24h.</t>
-  </si>
-  <si>
-    <t>Notificar próximo</t>
+    <t>El sistema debe notificar próximos vencimientos de pago</t>
+  </si>
+  <si>
+    <t>Alertar con anticipación sobre fechas de pago cercanas</t>
+  </si>
+  <si>
+    <t>Para recordar obligaciones y facilitar cumplimiento</t>
+  </si>
+  <si>
+    <t>Verificación automática y envío de alerta 3 días antes del vencimiento</t>
+  </si>
+  <si>
+    <t>Verificar detección de cuotas con vencimiento en 3 días. Validar generación de mensajes personalizados. Confirmar envío exitoso. Probar cuando no hay cuotas próximas a vencer. Validar que no se envíen duplicados.</t>
+  </si>
+  <si>
+    <t>Configurar ventana de anticipación (actualmente 3 días)</t>
+  </si>
+  <si>
+    <t>Notificar Próximo Vencimiento</t>
   </si>
   <si>
     <t>RF-8.3</t>
   </si>
   <si>
-    <t>Notificar pago vencido.</t>
-  </si>
-  <si>
-    <t>Alertar al cliente por cuotas no pagadas.</t>
-  </si>
-  <si>
-    <t>Mejorar recuperación de cartera.</t>
-  </si>
-  <si>
-    <t>Si el pago ya fue realizado, cancelar notificación.</t>
-  </si>
-  <si>
-    <t>Registrar evento en log.</t>
-  </si>
-  <si>
-    <t>Notificar vencido</t>
+    <t>El sistema debe notificar pagos vencidos</t>
+  </si>
+  <si>
+    <t>Alertar sobre obligaciones no cumplidas en fecha</t>
+  </si>
+  <si>
+    <t>Para informar estado de deuda y solicitar regularización</t>
+  </si>
+  <si>
+    <t>Verificación diaria automática de cuotas vencidas sin pago</t>
+  </si>
+  <si>
+    <t>Verificar identificación de cuotas vencidas sin pago. Validar generación de notificación de deuda. Confirmar envío al cliente. Probar registro en sistema. Validar que se envíe solo una vez por cuota vencida.</t>
+  </si>
+  <si>
+    <t>Incluir información de monto adeudado e intereses</t>
+  </si>
+  <si>
+    <t>Notificar Pago Vencido</t>
   </si>
   <si>
     <t>HISTORIA DE USUARIO (HU)</t>
@@ -601,7 +694,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -629,19 +722,8 @@
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
+      <name val="&quot;Arial Narrow&quot;"/>
     </font>
     <font>
       <b/>
@@ -796,6 +878,25 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -896,25 +997,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -998,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1018,115 +1100,114 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="11" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1134,18 +1215,18 @@
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1468,7 +1549,7 @@
     <col customWidth="1" min="8" max="12" width="10.63"/>
     <col customWidth="1" min="13" max="13" width="32.75"/>
     <col customWidth="1" min="14" max="15" width="20.63"/>
-    <col customWidth="1" min="16" max="26" width="9.38"/>
+    <col customWidth="1" min="16" max="25" width="9.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1499,7 +1580,6 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -1527,7 +1607,6 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
     </row>
     <row r="3" ht="45.0" customHeight="1">
       <c r="A3" s="1"/>
@@ -1557,7 +1636,6 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -1585,7 +1663,6 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="60.0" customHeight="1">
       <c r="A5" s="1"/>
@@ -1641,7 +1718,6 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="75.75" customHeight="1">
       <c r="A6" s="1"/>
@@ -1663,22 +1739,22 @@
       <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J6" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>45874.0</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="9" t="s">
@@ -1697,51 +1773,50 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
     </row>
     <row r="7" ht="75.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J7" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="14" t="s">
+      <c r="I7" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>45874.0</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="L7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="17" t="s">
         <v>35</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1753,51 +1828,50 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="75.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="I8" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>45874.0</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="M8" s="14" t="s">
         <v>44</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1809,51 +1883,50 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
     </row>
     <row r="9" ht="75.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="I9" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>45877.0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1865,51 +1938,50 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="64.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="I10" s="14">
+        <v>8.0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>45874.0</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>60</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1921,51 +1993,50 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="61.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="D11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>62</v>
+      <c r="I11" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>45879.0</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1977,49 +2048,50 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="70.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="I12" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>45881.0</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>69</v>
+      <c r="L12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2031,30 +2103,51 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="61.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>45884.0</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="10"/>
+      <c r="L13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2065,30 +2158,51 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="58.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14">
+        <v>45.0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>45887.0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2099,51 +2213,50 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="39.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="B15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>85</v>
+      <c r="I15" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>45884.0</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2155,51 +2268,50 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
     </row>
     <row r="16" ht="72.0" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="B16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="I16" s="14">
+        <v>50.0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>45889.0</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>93</v>
+      <c r="L16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2211,51 +2323,50 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
     </row>
     <row r="17" ht="39.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="B17" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>102</v>
+      <c r="I17" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>45881.0</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2267,51 +2378,50 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
     </row>
     <row r="18" ht="39.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="B18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>110</v>
+      <c r="I18" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>45881.0</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2323,51 +2433,50 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
     </row>
     <row r="19" ht="39.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B19" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>118</v>
+      <c r="I19" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>45884.0</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2379,51 +2488,50 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="B20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>126</v>
+      <c r="I20" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>45887.0</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2435,51 +2543,50 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>134</v>
+      <c r="I21" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>45887.0</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2491,51 +2598,50 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="B22" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K22" s="10" t="s">
+      <c r="I22" s="14">
+        <v>35.0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>45889.0</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>143</v>
+      <c r="L22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2547,51 +2653,50 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="B23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>151</v>
+      <c r="I23" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="J23" s="15">
+        <v>45879.0</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2603,51 +2708,50 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="B24" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>159</v>
+      <c r="I24" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="J24" s="15">
+        <v>45881.0</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2659,51 +2763,50 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
     </row>
     <row r="25" ht="75.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="B25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>167</v>
+      <c r="I25" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="J25" s="15">
+        <v>45891.0</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2715,51 +2818,50 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="75.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="B26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>175</v>
+      <c r="I26" s="14">
+        <v>25.0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>45894.0</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2771,51 +2873,50 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
     </row>
     <row r="27" ht="75.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="B27" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="11">
-        <v>45979.0</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>182</v>
+      <c r="I27" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="J27" s="15">
+        <v>45894.0</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2827,24 +2928,51 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
+    </row>
+    <row r="28" ht="75.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="B28" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="14">
+        <v>22.0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>45894.0</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2855,7 +2983,6 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
@@ -2883,7 +3010,6 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
@@ -2896,8 +3022,8 @@
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2911,7 +3037,6 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
@@ -2939,9 +3064,8 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2967,7 +3091,6 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
@@ -2995,7 +3118,6 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
@@ -3007,9 +3129,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3023,7 +3145,6 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
@@ -3051,7 +3172,6 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
@@ -3079,7 +3199,6 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
@@ -3107,7 +3226,6 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
@@ -3135,7 +3253,6 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
@@ -3163,7 +3280,6 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
@@ -3191,7 +3307,6 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
@@ -3219,7 +3334,6 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
@@ -3247,7 +3361,6 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
@@ -3275,7 +3388,6 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
@@ -3303,7 +3415,6 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
@@ -3331,7 +3442,6 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
@@ -3359,7 +3469,6 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
@@ -3387,7 +3496,6 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
@@ -3415,7 +3523,6 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
@@ -3443,7 +3550,6 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
@@ -3471,7 +3577,6 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
@@ -3499,7 +3604,6 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
@@ -3527,7 +3631,6 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
@@ -3555,7 +3658,6 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
@@ -3583,7 +3685,6 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
@@ -3611,7 +3712,6 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
@@ -3639,7 +3739,6 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
@@ -3667,7 +3766,6 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
@@ -3695,7 +3793,6 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
@@ -3723,7 +3820,6 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
@@ -3751,7 +3847,6 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
@@ -3779,7 +3874,6 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
@@ -3807,7 +3901,6 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
@@ -3835,7 +3928,6 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
@@ -3863,7 +3955,6 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
@@ -3891,7 +3982,6 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
@@ -3919,7 +4009,6 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
@@ -3947,7 +4036,6 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
@@ -3975,7 +4063,6 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
@@ -4003,7 +4090,6 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
@@ -4031,7 +4117,6 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
@@ -4059,7 +4144,6 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
@@ -4087,7 +4171,6 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
@@ -4115,7 +4198,6 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
@@ -4143,7 +4225,6 @@
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
@@ -4171,7 +4252,6 @@
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
@@ -4199,7 +4279,6 @@
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
@@ -4227,7 +4306,6 @@
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
@@ -4255,7 +4333,6 @@
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
@@ -4283,7 +4360,6 @@
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
@@ -4311,7 +4387,6 @@
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
@@ -4339,7 +4414,6 @@
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
@@ -4367,7 +4441,6 @@
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
-      <c r="Z82" s="1"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
@@ -4395,7 +4468,6 @@
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
@@ -4423,7 +4495,6 @@
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
@@ -4451,7 +4522,6 @@
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
@@ -4479,7 +4549,6 @@
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
@@ -4507,7 +4576,6 @@
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
-      <c r="Z87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
@@ -4535,7 +4603,6 @@
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
-      <c r="Z88" s="1"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
@@ -4563,7 +4630,6 @@
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
-      <c r="Z89" s="1"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
@@ -4591,7 +4657,6 @@
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
@@ -4619,7 +4684,6 @@
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
-      <c r="Z91" s="1"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
@@ -4647,7 +4711,6 @@
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
@@ -4675,7 +4738,6 @@
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
@@ -4703,7 +4765,6 @@
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
-      <c r="Z94" s="1"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
@@ -4731,7 +4792,6 @@
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
-      <c r="Z95" s="1"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
@@ -4759,7 +4819,6 @@
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
-      <c r="Z96" s="1"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
@@ -4787,7 +4846,6 @@
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
@@ -4815,7 +4873,6 @@
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
@@ -4843,7 +4900,6 @@
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
@@ -4871,7 +4927,6 @@
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
@@ -4899,7 +4954,6 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
-      <c r="Z101" s="1"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
@@ -4927,7 +4981,6 @@
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
@@ -4955,7 +5008,6 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
@@ -4983,7 +5035,6 @@
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
-      <c r="Z104" s="1"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
@@ -5011,7 +5062,6 @@
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
@@ -5039,7 +5089,6 @@
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
@@ -5067,7 +5116,6 @@
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
-      <c r="Z107" s="1"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
@@ -5095,7 +5143,6 @@
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
@@ -5123,7 +5170,6 @@
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
-      <c r="Z109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
@@ -5151,7 +5197,6 @@
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
@@ -5179,7 +5224,6 @@
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
-      <c r="Z111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
@@ -5207,7 +5251,6 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
@@ -5235,7 +5278,6 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
-      <c r="Z113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
@@ -5263,7 +5305,6 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
-      <c r="Z114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
@@ -5291,7 +5332,6 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
@@ -5319,7 +5359,6 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
       <c r="Y116" s="1"/>
-      <c r="Z116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
@@ -5347,7 +5386,6 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
@@ -5375,7 +5413,6 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
       <c r="Y118" s="1"/>
-      <c r="Z118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
@@ -5403,7 +5440,6 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
@@ -5431,7 +5467,6 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
       <c r="Y120" s="1"/>
-      <c r="Z120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
@@ -5459,7 +5494,6 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="1"/>
-      <c r="Z121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
@@ -5487,7 +5521,6 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
       <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
@@ -5515,7 +5548,6 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
-      <c r="Z123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
@@ -5543,7 +5575,6 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
@@ -5571,7 +5602,6 @@
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
       <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
@@ -5599,7 +5629,6 @@
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
@@ -5627,7 +5656,6 @@
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
       <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
@@ -5655,7 +5683,6 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
       <c r="Y128" s="1"/>
-      <c r="Z128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
@@ -5683,7 +5710,6 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
-      <c r="Z129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
@@ -5711,7 +5737,6 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
@@ -5739,7 +5764,6 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
@@ -5767,7 +5791,6 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
@@ -5795,7 +5818,6 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
@@ -5823,7 +5845,6 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
@@ -5851,7 +5872,6 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
@@ -5879,7 +5899,6 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
@@ -5907,7 +5926,6 @@
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
@@ -5935,7 +5953,6 @@
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
@@ -5963,7 +5980,6 @@
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
-      <c r="Z139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
@@ -5991,7 +6007,6 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
@@ -6019,7 +6034,6 @@
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
-      <c r="Z141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
@@ -6047,7 +6061,6 @@
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
@@ -6075,7 +6088,6 @@
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
@@ -6103,7 +6115,6 @@
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
@@ -6131,7 +6142,6 @@
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
@@ -6159,7 +6169,6 @@
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
@@ -6187,7 +6196,6 @@
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
@@ -6215,7 +6223,6 @@
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
@@ -6243,7 +6250,6 @@
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
@@ -6271,7 +6277,6 @@
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
@@ -6299,7 +6304,6 @@
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
@@ -6327,7 +6331,6 @@
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
@@ -6355,7 +6358,6 @@
       <c r="W153" s="1"/>
       <c r="X153" s="1"/>
       <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
@@ -6383,7 +6385,6 @@
       <c r="W154" s="1"/>
       <c r="X154" s="1"/>
       <c r="Y154" s="1"/>
-      <c r="Z154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
@@ -6411,7 +6412,6 @@
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
-      <c r="Z155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
@@ -6439,7 +6439,6 @@
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
-      <c r="Z156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
@@ -6467,7 +6466,6 @@
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
-      <c r="Z157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
@@ -6495,7 +6493,6 @@
       <c r="W158" s="1"/>
       <c r="X158" s="1"/>
       <c r="Y158" s="1"/>
-      <c r="Z158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
@@ -6523,7 +6520,6 @@
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
-      <c r="Z159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
@@ -6551,7 +6547,6 @@
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
-      <c r="Z160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
@@ -6579,7 +6574,6 @@
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
-      <c r="Z161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
@@ -6607,7 +6601,6 @@
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
-      <c r="Z162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
@@ -6635,7 +6628,6 @@
       <c r="W163" s="1"/>
       <c r="X163" s="1"/>
       <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
@@ -6663,7 +6655,6 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
-      <c r="Z164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
@@ -6691,7 +6682,6 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
       <c r="Y165" s="1"/>
-      <c r="Z165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
@@ -6719,7 +6709,6 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
       <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
@@ -6747,7 +6736,6 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
       <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
@@ -6775,7 +6763,6 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
       <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
@@ -6803,7 +6790,6 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
       <c r="Y169" s="1"/>
-      <c r="Z169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
@@ -6831,7 +6817,6 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
       <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
@@ -6859,7 +6844,6 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
       <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
@@ -6887,7 +6871,6 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
       <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
@@ -6915,7 +6898,6 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
       <c r="Y173" s="1"/>
-      <c r="Z173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
@@ -6943,7 +6925,6 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
       <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
@@ -6971,7 +6952,6 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
       <c r="Y175" s="1"/>
-      <c r="Z175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
@@ -6999,7 +6979,6 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
       <c r="Y176" s="1"/>
-      <c r="Z176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
@@ -7027,7 +7006,6 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
       <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
@@ -7055,7 +7033,6 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
       <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
@@ -7083,7 +7060,6 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
       <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
@@ -7111,7 +7087,6 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
       <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
@@ -7139,7 +7114,6 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
       <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
@@ -7167,7 +7141,6 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
       <c r="Y182" s="1"/>
-      <c r="Z182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
@@ -7195,7 +7168,6 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
       <c r="Y183" s="1"/>
-      <c r="Z183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
@@ -7223,7 +7195,6 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
       <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
@@ -7251,7 +7222,6 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
       <c r="Y185" s="1"/>
-      <c r="Z185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
@@ -7279,7 +7249,6 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
       <c r="Y186" s="1"/>
-      <c r="Z186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
@@ -7307,7 +7276,6 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
       <c r="Y187" s="1"/>
-      <c r="Z187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
@@ -7335,7 +7303,6 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
       <c r="Y188" s="1"/>
-      <c r="Z188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
@@ -7363,7 +7330,6 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
       <c r="Y189" s="1"/>
-      <c r="Z189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
@@ -7391,7 +7357,6 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
       <c r="Y190" s="1"/>
-      <c r="Z190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
@@ -7419,7 +7384,6 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
       <c r="Y191" s="1"/>
-      <c r="Z191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
@@ -7447,7 +7411,6 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
       <c r="Y192" s="1"/>
-      <c r="Z192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
@@ -7475,7 +7438,6 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
       <c r="Y193" s="1"/>
-      <c r="Z193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
@@ -7503,7 +7465,6 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
       <c r="Y194" s="1"/>
-      <c r="Z194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
@@ -7531,7 +7492,6 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
       <c r="Y195" s="1"/>
-      <c r="Z195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
@@ -7559,7 +7519,6 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
       <c r="Y196" s="1"/>
-      <c r="Z196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
@@ -7587,7 +7546,6 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
       <c r="Y197" s="1"/>
-      <c r="Z197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
@@ -7615,7 +7573,6 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
       <c r="Y198" s="1"/>
-      <c r="Z198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
@@ -7643,7 +7600,6 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
       <c r="Y199" s="1"/>
-      <c r="Z199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
@@ -7671,7 +7627,6 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
       <c r="Y200" s="1"/>
-      <c r="Z200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
@@ -7699,7 +7654,6 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
       <c r="Y201" s="1"/>
-      <c r="Z201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
@@ -7727,7 +7681,6 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
       <c r="Y202" s="1"/>
-      <c r="Z202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
@@ -7755,7 +7708,6 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
-      <c r="Z203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
@@ -7783,7 +7735,6 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
       <c r="Y204" s="1"/>
-      <c r="Z204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
@@ -7811,7 +7762,6 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
       <c r="Y205" s="1"/>
-      <c r="Z205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
@@ -7839,652 +7789,30 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
       <c r="Y206" s="1"/>
-      <c r="Z206" s="1"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="2"/>
-      <c r="J207" s="2"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
-      <c r="U207" s="1"/>
-      <c r="V207" s="1"/>
-      <c r="W207" s="1"/>
-      <c r="X207" s="1"/>
-      <c r="Y207" s="1"/>
-      <c r="Z207" s="1"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
-      <c r="Y208" s="1"/>
-      <c r="Z208" s="1"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="U209" s="1"/>
-      <c r="V209" s="1"/>
-      <c r="W209" s="1"/>
-      <c r="X209" s="1"/>
-      <c r="Y209" s="1"/>
-      <c r="Z209" s="1"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
-      <c r="Y210" s="1"/>
-      <c r="Z210" s="1"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-      <c r="Y211" s="1"/>
-      <c r="Z211" s="1"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
-      <c r="Y212" s="1"/>
-      <c r="Z212" s="1"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-      <c r="Y213" s="1"/>
-      <c r="Z213" s="1"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
-      <c r="Y214" s="1"/>
-      <c r="Z214" s="1"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="2"/>
-      <c r="J215" s="2"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-      <c r="Z215" s="1"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-      <c r="Z216" s="1"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-      <c r="Z217" s="1"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-      <c r="Y218" s="1"/>
-      <c r="Z218" s="1"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="2"/>
-      <c r="J219" s="2"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
-      <c r="Y219" s="1"/>
-      <c r="Z219" s="1"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-      <c r="Y220" s="1"/>
-      <c r="Z220" s="1"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="2"/>
-      <c r="J221" s="2"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-      <c r="Y221" s="1"/>
-      <c r="Z221" s="1"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
-      <c r="I222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="1"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
-      <c r="W222" s="1"/>
-      <c r="X222" s="1"/>
-      <c r="Y222" s="1"/>
-      <c r="Z222" s="1"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
-      <c r="W223" s="1"/>
-      <c r="X223" s="1"/>
-      <c r="Y223" s="1"/>
-      <c r="Z223" s="1"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-      <c r="W224" s="1"/>
-      <c r="X224" s="1"/>
-      <c r="Y224" s="1"/>
-      <c r="Z224" s="1"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
-      <c r="Y225" s="1"/>
-      <c r="Z225" s="1"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-      <c r="Y226" s="1"/>
-      <c r="Z226" s="1"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="1"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-      <c r="Y227" s="1"/>
-      <c r="Z227" s="1"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="1"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-      <c r="Y228" s="1"/>
-      <c r="Z228" s="1"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-      <c r="Y229" s="1"/>
-      <c r="Z229" s="1"/>
-    </row>
+    </row>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
     <row r="231" ht="15.75" customHeight="1"/>
     <row r="232" ht="15.75" customHeight="1"/>
@@ -9226,34 +8554,11 @@
     <row r="968" ht="15.75" customHeight="1"/>
     <row r="969" ht="15.75" customHeight="1"/>
     <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L27">
+  <conditionalFormatting sqref="L6:L28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9263,7 +8568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L19 L25:L27">
+  <conditionalFormatting sqref="L12:L19 L25:L28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9283,6 +8588,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K28">
+      <formula1>"Alta,Media ,Baja"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.5511811023622047" footer="0.0" header="0.0" left="0.31496062992125984" right="0.31496062992125984" top="0.7480314960629921"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -9310,20 +8620,20 @@
     <row r="2" ht="15.0" hidden="1" customHeight="1"/>
     <row r="3" ht="15.0" hidden="1" customHeight="1"/>
     <row r="4" hidden="1">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" hidden="1">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" ht="39.75" customHeight="1">
-      <c r="B6" s="22" t="s">
-        <v>183</v>
+      <c r="B6" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9341,1100 +8651,1100 @@
       <c r="P6" s="6"/>
     </row>
     <row r="7" ht="9.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
     </row>
     <row r="8" ht="9.75" customHeight="1">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33" t="s">
-        <v>184</v>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="32" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="23"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,5,0)</f>
+      <c r="B10" s="29"/>
+      <c r="C10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,5,0)</f>
         <v>Cliente, Asistente, Gerente</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,11,0)</f>
+      <c r="G10" s="38"/>
+      <c r="H10" s="37" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,11,0)</f>
         <v>No iniciado</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" ht="9.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="33" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="33" t="s">
-        <v>186</v>
+      <c r="G12" s="38"/>
+      <c r="H12" s="32" t="s">
+        <v>217</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="42">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O23,8,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,10,0)</f>
-        <v>Alta</v>
+      <c r="A13" s="22"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="41">
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O28,8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,10,0)</f>
+        <v>Media</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,7,0)</f>
-        <v>Equipo de desarrollo</v>
+      <c r="G13" s="38"/>
+      <c r="H13" s="37" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,7,0)</f>
+        <v>Equipo Desarrollo</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" ht="9.75" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="44" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,3,0)</f>
-        <v>El usuario necesita acceder al sistema según su rol.</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H15" s="44" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,4,0)</f>
-        <v>Permitir inicio de sesión con validación de credenciales.</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="M15" s="48" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,6,0)</f>
-        <v>Ingreso de correo y contraseña, validar existencia de usuario y exactitud de contraseña, identificar rol, redirigir a interfaz respectiva.</v>
-      </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="43" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,3,0)</f>
+        <v>Terminar sesión y limpiar tokens de autenticación</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" s="43" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,4,0)</f>
+        <v>Para prevenir accesos no autorizados después del uso</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="M15" s="47" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,6,0)</f>
+        <v>Hacer clic en botón 'Cerrar sesión'</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" ht="9.75" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="57" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,14,0)</f>
-        <v>Iniciar Sesión</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="56" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,14,0)</f>
+        <v>Cerrar Sesión</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="B20" s="30"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" ht="9.75" customHeight="1">
-      <c r="B21" s="30"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="64" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,12,0)</f>
-        <v>Verificar que solo usuarios con credenciales válidas accedan</v>
-      </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="63" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="63" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,12,0)</f>
+        <v>Verificar invalidación de tokens. Confirmar redirección a pantalla de inicio de sesión. Probar intento de acceso con sesión cerrada. Validar comportamiento con sesión expirada.</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="65" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O23,13,0)</f>
-        <v>Se extiende con "Recuperar Contraseña" si el usuario lo solicita.</v>
-      </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="64" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O28,13,0)</f>
+        <v>Disponible en todas las vistas internas</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
     </row>
     <row r="25" ht="9.75" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
     <row r="54" ht="19.5" customHeight="1">
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
@@ -11426,8 +10736,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10:C11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
       <formula1>'Formato descripción HU'!$B$6:$B$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+      <formula1>'Formato descripción HU'!$B$6:$B$28</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
